--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.44654466666667</v>
+        <v>6.295968333333334</v>
       </c>
       <c r="H2">
-        <v>58.339634</v>
+        <v>18.887905</v>
       </c>
       <c r="I2">
-        <v>0.7934109702307454</v>
+        <v>0.5052862712055841</v>
       </c>
       <c r="J2">
-        <v>0.7934109702307454</v>
+        <v>0.5052862712055841</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.52052333333334</v>
+        <v>18.43631966666667</v>
       </c>
       <c r="N2">
-        <v>103.56157</v>
+        <v>55.308959</v>
       </c>
       <c r="O2">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962782</v>
       </c>
       <c r="P2">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962781</v>
       </c>
       <c r="Q2">
-        <v>671.3048989183757</v>
+        <v>116.0744848045439</v>
       </c>
       <c r="R2">
-        <v>6041.744090265381</v>
+        <v>1044.670363240895</v>
       </c>
       <c r="S2">
-        <v>0.609683542009046</v>
+        <v>0.3049253319455165</v>
       </c>
       <c r="T2">
-        <v>0.609683542009046</v>
+        <v>0.3049253319455164</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.44654466666667</v>
+        <v>6.295968333333334</v>
       </c>
       <c r="H3">
-        <v>58.339634</v>
+        <v>18.887905</v>
       </c>
       <c r="I3">
-        <v>0.7934109702307454</v>
+        <v>0.5052862712055841</v>
       </c>
       <c r="J3">
-        <v>0.7934109702307454</v>
+        <v>0.5052862712055841</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.042855</v>
       </c>
       <c r="O3">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256785</v>
       </c>
       <c r="P3">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256784</v>
       </c>
       <c r="Q3">
-        <v>103.9926987794522</v>
+        <v>33.66843568541945</v>
       </c>
       <c r="R3">
-        <v>935.93428901507</v>
+        <v>303.015921168775</v>
       </c>
       <c r="S3">
-        <v>0.09444685572396723</v>
+        <v>0.0884463019133806</v>
       </c>
       <c r="T3">
-        <v>0.09444685572396723</v>
+        <v>0.08844630191338058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.44654466666667</v>
+        <v>6.295968333333334</v>
       </c>
       <c r="H4">
-        <v>58.339634</v>
+        <v>18.887905</v>
       </c>
       <c r="I4">
-        <v>0.7934109702307454</v>
+        <v>0.5052862712055841</v>
       </c>
       <c r="J4">
-        <v>0.7934109702307454</v>
+        <v>0.5052862712055841</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.055101333333334</v>
+        <v>6.766555</v>
       </c>
       <c r="N4">
-        <v>15.165304</v>
+        <v>20.299665</v>
       </c>
       <c r="O4">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="P4">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="Q4">
-        <v>98.30425387319291</v>
+        <v>42.60201600575834</v>
       </c>
       <c r="R4">
-        <v>884.7382848587361</v>
+        <v>383.418144051825</v>
       </c>
       <c r="S4">
-        <v>0.08928057249773205</v>
+        <v>0.1119146373466871</v>
       </c>
       <c r="T4">
-        <v>0.08928057249773205</v>
+        <v>0.111914637346687</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>7.573247</v>
       </c>
       <c r="I5">
-        <v>0.1029951139231878</v>
+        <v>0.2025983155648483</v>
       </c>
       <c r="J5">
-        <v>0.1029951139231878</v>
+        <v>0.2025983155648483</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.52052333333334</v>
+        <v>18.43631966666667</v>
       </c>
       <c r="N5">
-        <v>103.56157</v>
+        <v>55.308959</v>
       </c>
       <c r="O5">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962782</v>
       </c>
       <c r="P5">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962781</v>
       </c>
       <c r="Q5">
-        <v>87.1441499241989</v>
+        <v>46.54093420220811</v>
       </c>
       <c r="R5">
-        <v>784.29734931779</v>
+        <v>418.868407819873</v>
       </c>
       <c r="S5">
-        <v>0.07914489239801165</v>
+        <v>0.122262096054612</v>
       </c>
       <c r="T5">
-        <v>0.07914489239801165</v>
+        <v>0.122262096054612</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>7.573247</v>
       </c>
       <c r="I6">
-        <v>0.1029951139231878</v>
+        <v>0.2025983155648483</v>
       </c>
       <c r="J6">
-        <v>0.1029951139231878</v>
+        <v>0.2025983155648483</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>16.042855</v>
       </c>
       <c r="O6">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256785</v>
       </c>
       <c r="P6">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256784</v>
       </c>
       <c r="Q6">
         <v>13.49961150002055</v>
@@ -818,10 +818,10 @@
         <v>121.496503500185</v>
       </c>
       <c r="S6">
-        <v>0.01226043630597627</v>
+        <v>0.03546320730788321</v>
       </c>
       <c r="T6">
-        <v>0.01226043630597627</v>
+        <v>0.03546320730788321</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>7.573247</v>
       </c>
       <c r="I7">
-        <v>0.1029951139231878</v>
+        <v>0.2025983155648483</v>
       </c>
       <c r="J7">
-        <v>0.1029951139231878</v>
+        <v>0.2025983155648483</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.055101333333334</v>
+        <v>6.766555</v>
       </c>
       <c r="N7">
-        <v>15.165304</v>
+        <v>20.299665</v>
       </c>
       <c r="O7">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="P7">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="Q7">
-        <v>12.76117700245422</v>
+        <v>17.08159745136167</v>
       </c>
       <c r="R7">
-        <v>114.850593022088</v>
+        <v>153.734377062255</v>
       </c>
       <c r="S7">
-        <v>0.0115897852191999</v>
+        <v>0.04487301220235308</v>
       </c>
       <c r="T7">
-        <v>0.0115897852191999</v>
+        <v>0.04487301220235308</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.539092333333333</v>
+        <v>3.639816666666666</v>
       </c>
       <c r="H8">
-        <v>7.617277</v>
+        <v>10.91945</v>
       </c>
       <c r="I8">
-        <v>0.1035939158460669</v>
+        <v>0.2921154132295675</v>
       </c>
       <c r="J8">
-        <v>0.1035939158460669</v>
+        <v>0.2921154132295676</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.52052333333334</v>
+        <v>18.43631966666667</v>
       </c>
       <c r="N8">
-        <v>103.56157</v>
+        <v>55.308959</v>
       </c>
       <c r="O8">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962782</v>
       </c>
       <c r="P8">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962781</v>
       </c>
       <c r="Q8">
-        <v>87.65079613832111</v>
+        <v>67.10482359472778</v>
       </c>
       <c r="R8">
-        <v>788.85716524489</v>
+        <v>603.94341235255</v>
       </c>
       <c r="S8">
-        <v>0.07960503183520211</v>
+        <v>0.1762830189961496</v>
       </c>
       <c r="T8">
-        <v>0.07960503183520211</v>
+        <v>0.1762830189961496</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.539092333333333</v>
+        <v>3.639816666666666</v>
       </c>
       <c r="H9">
-        <v>7.617277</v>
+        <v>10.91945</v>
       </c>
       <c r="I9">
-        <v>0.1035939158460669</v>
+        <v>0.2921154132295675</v>
       </c>
       <c r="J9">
-        <v>0.1035939158460669</v>
+        <v>0.2921154132295676</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>16.042855</v>
       </c>
       <c r="O9">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256785</v>
       </c>
       <c r="P9">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256784</v>
       </c>
       <c r="Q9">
-        <v>13.57809671175944</v>
+        <v>19.46435033663889</v>
       </c>
       <c r="R9">
-        <v>122.202870405835</v>
+        <v>175.17915302975</v>
       </c>
       <c r="S9">
-        <v>0.01233171709353702</v>
+        <v>0.05113245600441466</v>
       </c>
       <c r="T9">
-        <v>0.01233171709353702</v>
+        <v>0.05113245600441466</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.539092333333333</v>
+        <v>3.639816666666666</v>
       </c>
       <c r="H10">
-        <v>7.617277</v>
+        <v>10.91945</v>
       </c>
       <c r="I10">
-        <v>0.1035939158460669</v>
+        <v>0.2921154132295675</v>
       </c>
       <c r="J10">
-        <v>0.1035939158460669</v>
+        <v>0.2921154132295676</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.055101333333334</v>
+        <v>6.766555</v>
       </c>
       <c r="N10">
-        <v>15.165304</v>
+        <v>20.299665</v>
       </c>
       <c r="O10">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="P10">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="Q10">
-        <v>12.83536903968978</v>
+        <v>24.62901966491667</v>
       </c>
       <c r="R10">
-        <v>115.518321357208</v>
+        <v>221.66117698425</v>
       </c>
       <c r="S10">
-        <v>0.01165716691732771</v>
+        <v>0.06469993822900326</v>
       </c>
       <c r="T10">
-        <v>0.01165716691732771</v>
+        <v>0.06469993822900326</v>
       </c>
     </row>
   </sheetData>
